--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111749006</v>
+        <v>111747705</v>
       </c>
       <c r="B2" t="n">
-        <v>8377</v>
+        <v>93067</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106545</v>
+        <v>2810</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575512.2089522779</v>
+        <v>575459.4222356658</v>
       </c>
       <c r="R2" t="n">
-        <v>6509825.662577543</v>
+        <v>6509864.113963567</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111749343</v>
+        <v>111749097</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>93388</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>2180</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575415.2450877089</v>
+        <v>575501.7342092508</v>
       </c>
       <c r="R3" t="n">
-        <v>6509807.674603676</v>
+        <v>6509775.591426332</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111749097</v>
+        <v>111747186</v>
       </c>
       <c r="B5" t="n">
-        <v>93388</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575501.7342092508</v>
+        <v>575435.6246570286</v>
       </c>
       <c r="R5" t="n">
-        <v>6509775.591426332</v>
+        <v>6509856.898648335</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111749860</v>
+        <v>111749006</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>8377</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575356.6078101217</v>
+        <v>575512.2089522779</v>
       </c>
       <c r="R6" t="n">
-        <v>6509772.251964441</v>
+        <v>6509825.662577543</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111747705</v>
+        <v>111749343</v>
       </c>
       <c r="B8" t="n">
-        <v>93067</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2810</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575459.4222356658</v>
+        <v>575415.2450877089</v>
       </c>
       <c r="R8" t="n">
-        <v>6509864.113963567</v>
+        <v>6509807.674603676</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111747186</v>
+        <v>111749860</v>
       </c>
       <c r="B9" t="n">
         <v>78107</v>
@@ -1508,17 +1508,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575435.6246570286</v>
+        <v>575356.6078101217</v>
       </c>
       <c r="R9" t="n">
-        <v>6509856.898648335</v>
+        <v>6509772.251964441</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111747705</v>
+        <v>111749343</v>
       </c>
       <c r="B2" t="n">
-        <v>93067</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2810</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575459.4222356658</v>
+        <v>575415.2450877089</v>
       </c>
       <c r="R2" t="n">
-        <v>6509864.113963567</v>
+        <v>6509807.674603676</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111749097</v>
+        <v>111747705</v>
       </c>
       <c r="B3" t="n">
-        <v>93388</v>
+        <v>93067</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2180</v>
+        <v>2810</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575501.7342092508</v>
+        <v>575459.4222356658</v>
       </c>
       <c r="R3" t="n">
-        <v>6509775.591426332</v>
+        <v>6509864.113963567</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111749897</v>
+        <v>111747186</v>
       </c>
       <c r="B4" t="n">
         <v>78107</v>
@@ -943,17 +943,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575336.6687912485</v>
+        <v>575435.6246570286</v>
       </c>
       <c r="R4" t="n">
-        <v>6509780.695668718</v>
+        <v>6509856.898648335</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111747186</v>
+        <v>111749883</v>
       </c>
       <c r="B5" t="n">
         <v>78107</v>
@@ -1056,17 +1056,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575435.6246570286</v>
+        <v>575336.5075504743</v>
       </c>
       <c r="R5" t="n">
-        <v>6509856.898648335</v>
+        <v>6509789.003789719</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111749883</v>
+        <v>111749097</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>93388</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,42 +1257,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>2180</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575336.5075504743</v>
+        <v>575501.7342092508</v>
       </c>
       <c r="R7" t="n">
-        <v>6509789.003789719</v>
+        <v>6509775.591426332</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111749343</v>
+        <v>111749860</v>
       </c>
       <c r="B8" t="n">
         <v>78107</v>
@@ -1395,14 +1395,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575415.2450877089</v>
+        <v>575356.6078101217</v>
       </c>
       <c r="R8" t="n">
-        <v>6509807.674603676</v>
+        <v>6509772.251964441</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111749860</v>
+        <v>111749897</v>
       </c>
       <c r="B9" t="n">
         <v>78107</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575356.6078101217</v>
+        <v>575336.6687912485</v>
       </c>
       <c r="R9" t="n">
-        <v>6509772.251964441</v>
+        <v>6509780.695668718</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111749343</v>
+        <v>111747705</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>93067</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>2810</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575415.2450877089</v>
+        <v>575459.4222356658</v>
       </c>
       <c r="R2" t="n">
-        <v>6509807.674603676</v>
+        <v>6509864.113963567</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111747705</v>
+        <v>111749006</v>
       </c>
       <c r="B3" t="n">
-        <v>93067</v>
+        <v>8377</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2810</v>
+        <v>106545</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575459.4222356658</v>
+        <v>575512.2089522779</v>
       </c>
       <c r="R3" t="n">
-        <v>6509864.113963567</v>
+        <v>6509825.662577543</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111749883</v>
+        <v>111749097</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>93388</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,42 +1031,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575336.5075504743</v>
+        <v>575501.7342092508</v>
       </c>
       <c r="R5" t="n">
-        <v>6509789.003789719</v>
+        <v>6509775.591426332</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111749006</v>
+        <v>111749883</v>
       </c>
       <c r="B6" t="n">
-        <v>8377</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575512.2089522779</v>
+        <v>575336.5075504743</v>
       </c>
       <c r="R6" t="n">
-        <v>6509825.662577543</v>
+        <v>6509789.003789719</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111749097</v>
+        <v>111749343</v>
       </c>
       <c r="B7" t="n">
-        <v>93388</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575501.7342092508</v>
+        <v>575415.2450877089</v>
       </c>
       <c r="R7" t="n">
-        <v>6509775.591426332</v>
+        <v>6509807.674603676</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111749860</v>
+        <v>111749897</v>
       </c>
       <c r="B8" t="n">
         <v>78107</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575356.6078101217</v>
+        <v>575336.6687912485</v>
       </c>
       <c r="R8" t="n">
-        <v>6509772.251964441</v>
+        <v>6509780.695668718</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111749897</v>
+        <v>111749860</v>
       </c>
       <c r="B9" t="n">
         <v>78107</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575336.6687912485</v>
+        <v>575356.6078101217</v>
       </c>
       <c r="R9" t="n">
-        <v>6509780.695668718</v>
+        <v>6509772.251964441</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111747705</v>
+        <v>111749883</v>
       </c>
       <c r="B2" t="n">
-        <v>93067</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2810</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575459.4222356658</v>
+        <v>575336.5075504743</v>
       </c>
       <c r="R2" t="n">
-        <v>6509864.113963567</v>
+        <v>6509789.003789719</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111749006</v>
+        <v>111749897</v>
       </c>
       <c r="B3" t="n">
-        <v>8377</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,42 +805,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575512.2089522779</v>
+        <v>575336.6687912485</v>
       </c>
       <c r="R3" t="n">
-        <v>6509825.662577543</v>
+        <v>6509780.695668718</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111747186</v>
+        <v>111749006</v>
       </c>
       <c r="B4" t="n">
-        <v>78107</v>
+        <v>8377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575435.6246570286</v>
+        <v>575512.2089522779</v>
       </c>
       <c r="R4" t="n">
-        <v>6509856.898648335</v>
+        <v>6509825.662577543</v>
       </c>
       <c r="S4" t="n">
         <v>2</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111749097</v>
+        <v>111747705</v>
       </c>
       <c r="B5" t="n">
-        <v>93388</v>
+        <v>93067</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>2810</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575501.7342092508</v>
+        <v>575459.4222356658</v>
       </c>
       <c r="R5" t="n">
-        <v>6509775.591426332</v>
+        <v>6509864.113963567</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111749883</v>
+        <v>111749343</v>
       </c>
       <c r="B6" t="n">
         <v>78107</v>
@@ -1169,14 +1169,14 @@
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575336.5075504743</v>
+        <v>575415.2450877089</v>
       </c>
       <c r="R6" t="n">
-        <v>6509789.003789719</v>
+        <v>6509807.674603676</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111749343</v>
+        <v>111749860</v>
       </c>
       <c r="B7" t="n">
         <v>78107</v>
@@ -1282,14 +1282,14 @@
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575415.2450877089</v>
+        <v>575356.6078101217</v>
       </c>
       <c r="R7" t="n">
-        <v>6509807.674603676</v>
+        <v>6509772.251964441</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111749897</v>
+        <v>111749097</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>93388</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,42 +1370,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>2180</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575336.6687912485</v>
+        <v>575501.7342092508</v>
       </c>
       <c r="R8" t="n">
-        <v>6509780.695668718</v>
+        <v>6509775.591426332</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111749860</v>
+        <v>111747186</v>
       </c>
       <c r="B9" t="n">
         <v>78107</v>
@@ -1508,17 +1508,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575356.6078101217</v>
+        <v>575435.6246570286</v>
       </c>
       <c r="R9" t="n">
-        <v>6509772.251964441</v>
+        <v>6509856.898648335</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111749006</v>
+        <v>111749343</v>
       </c>
       <c r="B4" t="n">
-        <v>8377</v>
+        <v>78107</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575512.2089522779</v>
+        <v>575415.2450877089</v>
       </c>
       <c r="R4" t="n">
-        <v>6509825.662577543</v>
+        <v>6509807.674603676</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111747705</v>
+        <v>111749006</v>
       </c>
       <c r="B5" t="n">
-        <v>93067</v>
+        <v>8377</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2810</v>
+        <v>106545</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575459.4222356658</v>
+        <v>575512.2089522779</v>
       </c>
       <c r="R5" t="n">
-        <v>6509864.113963567</v>
+        <v>6509825.662577543</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111749343</v>
+        <v>111747705</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>93067</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>2810</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575415.2450877089</v>
+        <v>575459.4222356658</v>
       </c>
       <c r="R6" t="n">
-        <v>6509807.674603676</v>
+        <v>6509864.113963567</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111749897</v>
+        <v>111747186</v>
       </c>
       <c r="B3" t="n">
         <v>78107</v>
@@ -830,17 +830,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575336.6687912485</v>
+        <v>575435.6246570286</v>
       </c>
       <c r="R3" t="n">
-        <v>6509780.695668718</v>
+        <v>6509856.898648335</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111749343</v>
+        <v>111749006</v>
       </c>
       <c r="B4" t="n">
-        <v>78107</v>
+        <v>8377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575415.2450877089</v>
+        <v>575512.2089522779</v>
       </c>
       <c r="R4" t="n">
-        <v>6509807.674603676</v>
+        <v>6509825.662577543</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111749006</v>
+        <v>111747705</v>
       </c>
       <c r="B5" t="n">
-        <v>8377</v>
+        <v>93067</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106545</v>
+        <v>2810</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575512.2089522779</v>
+        <v>575459.4222356658</v>
       </c>
       <c r="R5" t="n">
-        <v>6509825.662577543</v>
+        <v>6509864.113963567</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111747705</v>
+        <v>111749860</v>
       </c>
       <c r="B6" t="n">
-        <v>93067</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2810</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575459.4222356658</v>
+        <v>575356.6078101217</v>
       </c>
       <c r="R6" t="n">
-        <v>6509864.113963567</v>
+        <v>6509772.251964441</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111749860</v>
+        <v>111749897</v>
       </c>
       <c r="B7" t="n">
         <v>78107</v>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575356.6078101217</v>
+        <v>575336.6687912485</v>
       </c>
       <c r="R7" t="n">
-        <v>6509772.251964441</v>
+        <v>6509780.695668718</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111747186</v>
+        <v>111749343</v>
       </c>
       <c r="B9" t="n">
         <v>78107</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575435.6246570286</v>
+        <v>575415.2450877089</v>
       </c>
       <c r="R9" t="n">
-        <v>6509856.898648335</v>
+        <v>6509807.674603676</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1581,6 +1581,391 @@
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111964550</v>
+      </c>
+      <c r="B10" t="n">
+        <v>103288</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Stenstorp SSO 1470 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>575345.716659593</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6509958.000975758</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Krokek</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111964621</v>
+      </c>
+      <c r="B11" t="n">
+        <v>93388</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Stenstorp SSO 1660 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>575609.0158921016</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6509824.949736473</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Krokek</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111964494</v>
+      </c>
+      <c r="B12" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Stenstorp SSO 1470 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>575345.716659593</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6509958.000975758</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Krokek</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-07</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964550</v>
+        <v>111964621</v>
       </c>
       <c r="B10" t="n">
-        <v>103288</v>
+        <v>93388</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,50 +1600,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>2180</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1470 m, Ög</t>
+          <t>Stenstorp SSO 1660 m, Ög</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575345.716659593</v>
+        <v>575609.0158921016</v>
       </c>
       <c r="R10" t="n">
-        <v>6509958.000975758</v>
+        <v>6509824.949736473</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1700,7 +1688,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1718,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964621</v>
+        <v>111964550</v>
       </c>
       <c r="B11" t="n">
-        <v>93388</v>
+        <v>103288</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,38 +1722,50 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2180</v>
+        <v>221144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1660 m, Ög</t>
+          <t>Stenstorp SSO 1470 m, Ög</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575609.0158921016</v>
+        <v>575345.716659593</v>
       </c>
       <c r="R11" t="n">
-        <v>6509824.949736473</v>
+        <v>6509958.000975758</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111747186</v>
+        <v>111747705</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>93067</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>2810</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575435.6246570286</v>
+        <v>575459.4222356658</v>
       </c>
       <c r="R3" t="n">
-        <v>6509856.898648335</v>
+        <v>6509864.113963567</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111749006</v>
+        <v>111749860</v>
       </c>
       <c r="B4" t="n">
-        <v>8377</v>
+        <v>78107</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,42 +918,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575512.2089522779</v>
+        <v>575356.6078101217</v>
       </c>
       <c r="R4" t="n">
-        <v>6509825.662577543</v>
+        <v>6509772.251964441</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111747705</v>
+        <v>111749097</v>
       </c>
       <c r="B5" t="n">
-        <v>93067</v>
+        <v>93388</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2810</v>
+        <v>2180</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575459.4222356658</v>
+        <v>575501.7342092508</v>
       </c>
       <c r="R5" t="n">
-        <v>6509864.113963567</v>
+        <v>6509775.591426332</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111749860</v>
+        <v>111749006</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>8377</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575356.6078101217</v>
+        <v>575512.2089522779</v>
       </c>
       <c r="R6" t="n">
-        <v>6509772.251964441</v>
+        <v>6509825.662577543</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111749897</v>
+        <v>111747186</v>
       </c>
       <c r="B7" t="n">
         <v>78107</v>
@@ -1282,17 +1282,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575336.6687912485</v>
+        <v>575435.6246570286</v>
       </c>
       <c r="R7" t="n">
-        <v>6509780.695668718</v>
+        <v>6509856.898648335</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111749097</v>
+        <v>111749343</v>
       </c>
       <c r="B8" t="n">
-        <v>93388</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575501.7342092508</v>
+        <v>575415.2450877089</v>
       </c>
       <c r="R8" t="n">
-        <v>6509775.591426332</v>
+        <v>6509807.674603676</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111749343</v>
+        <v>111749897</v>
       </c>
       <c r="B9" t="n">
         <v>78107</v>
@@ -1508,14 +1508,14 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575415.2450877089</v>
+        <v>575336.6687912485</v>
       </c>
       <c r="R9" t="n">
-        <v>6509807.674603676</v>
+        <v>6509780.695668718</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111749883</v>
+        <v>111747186</v>
       </c>
       <c r="B2" t="n">
         <v>78107</v>
@@ -717,17 +717,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575336.5075504743</v>
+        <v>575435.6246570286</v>
       </c>
       <c r="R2" t="n">
-        <v>6509789.003789719</v>
+        <v>6509856.898648335</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111747705</v>
+        <v>111749897</v>
       </c>
       <c r="B3" t="n">
-        <v>93067</v>
+        <v>78107</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,42 +805,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2810</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575459.4222356658</v>
+        <v>575336.6687912485</v>
       </c>
       <c r="R3" t="n">
-        <v>6509864.113963567</v>
+        <v>6509780.695668718</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111749860</v>
+        <v>111747705</v>
       </c>
       <c r="B4" t="n">
-        <v>78107</v>
+        <v>93067</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,42 +918,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>2810</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575356.6078101217</v>
+        <v>575459.4222356658</v>
       </c>
       <c r="R4" t="n">
-        <v>6509772.251964441</v>
+        <v>6509864.113963567</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111749097</v>
+        <v>111749860</v>
       </c>
       <c r="B5" t="n">
-        <v>93388</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,42 +1031,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575501.7342092508</v>
+        <v>575356.6078101217</v>
       </c>
       <c r="R5" t="n">
-        <v>6509775.591426332</v>
+        <v>6509772.251964441</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111749006</v>
+        <v>111749097</v>
       </c>
       <c r="B6" t="n">
-        <v>8377</v>
+        <v>93388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106545</v>
+        <v>2180</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,13 +1173,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575512.2089522779</v>
+        <v>575501.7342092508</v>
       </c>
       <c r="R6" t="n">
-        <v>6509825.662577543</v>
+        <v>6509775.591426332</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111747186</v>
+        <v>111749883</v>
       </c>
       <c r="B7" t="n">
         <v>78107</v>
@@ -1282,17 +1282,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575435.6246570286</v>
+        <v>575336.5075504743</v>
       </c>
       <c r="R7" t="n">
-        <v>6509856.898648335</v>
+        <v>6509789.003789719</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111749343</v>
+        <v>111749006</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>8377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575415.2450877089</v>
+        <v>575512.2089522779</v>
       </c>
       <c r="R8" t="n">
-        <v>6509807.674603676</v>
+        <v>6509825.662577543</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111749897</v>
+        <v>111749343</v>
       </c>
       <c r="B9" t="n">
         <v>78107</v>
@@ -1508,14 +1508,14 @@
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575336.6687912485</v>
+        <v>575415.2450877089</v>
       </c>
       <c r="R9" t="n">
-        <v>6509780.695668718</v>
+        <v>6509807.674603676</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964621</v>
+        <v>111964494</v>
       </c>
       <c r="B10" t="n">
-        <v>93388</v>
+        <v>56414</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,42 +1596,50 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1660 m, Ög</t>
+          <t>Stenstorp SSO 1470 m, Ög</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575609.0158921016</v>
+        <v>575345.716659593</v>
       </c>
       <c r="R10" t="n">
-        <v>6509824.949736473</v>
+        <v>6509958.000975758</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1663,7 +1671,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1673,7 +1681,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1682,13 +1690,12 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1706,10 +1713,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964550</v>
+        <v>111964621</v>
       </c>
       <c r="B11" t="n">
-        <v>103288</v>
+        <v>93388</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1722,50 +1729,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>2180</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1470 m, Ög</t>
+          <t>Stenstorp SSO 1660 m, Ög</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575345.716659593</v>
+        <v>575609.0158921016</v>
       </c>
       <c r="R11" t="n">
-        <v>6509958.000975758</v>
+        <v>6509824.949736473</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1822,7 +1817,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1840,10 +1835,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964494</v>
+        <v>111964550</v>
       </c>
       <c r="B12" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,39 +1847,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1927,7 +1926,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1937,7 +1936,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,6 +1945,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111747186</v>
+        <v>111749006</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>8377</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575435.6246570286</v>
+        <v>575512.2089522779</v>
       </c>
       <c r="R2" t="n">
-        <v>6509856.898648335</v>
+        <v>6509825.662577543</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111749897</v>
+        <v>111749883</v>
       </c>
       <c r="B3" t="n">
         <v>78107</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575336.6687912485</v>
+        <v>575336.5075504743</v>
       </c>
       <c r="R3" t="n">
-        <v>6509780.695668718</v>
+        <v>6509789.003789719</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111749860</v>
+        <v>111749897</v>
       </c>
       <c r="B5" t="n">
         <v>78107</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575356.6078101217</v>
+        <v>575336.6687912485</v>
       </c>
       <c r="R5" t="n">
-        <v>6509772.251964441</v>
+        <v>6509780.695668718</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111749097</v>
+        <v>111749860</v>
       </c>
       <c r="B6" t="n">
-        <v>93388</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575501.7342092508</v>
+        <v>575356.6078101217</v>
       </c>
       <c r="R6" t="n">
-        <v>6509775.591426332</v>
+        <v>6509772.251964441</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111749883</v>
+        <v>111749097</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>93388</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,42 +1257,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>2180</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575336.5075504743</v>
+        <v>575501.7342092508</v>
       </c>
       <c r="R7" t="n">
-        <v>6509789.003789719</v>
+        <v>6509775.591426332</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111749006</v>
+        <v>111747186</v>
       </c>
       <c r="B8" t="n">
-        <v>8377</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575512.2089522779</v>
+        <v>575435.6246570286</v>
       </c>
       <c r="R8" t="n">
-        <v>6509825.662577543</v>
+        <v>6509856.898648335</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964494</v>
+        <v>111964550</v>
       </c>
       <c r="B10" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,39 +1596,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1681,7 +1685,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1690,6 +1694,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1835,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964550</v>
+        <v>111964494</v>
       </c>
       <c r="B12" t="n">
-        <v>103288</v>
+        <v>56414</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,43 +1852,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221144</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1936,7 +1937,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1945,7 +1946,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111749006</v>
+        <v>111749883</v>
       </c>
       <c r="B2" t="n">
-        <v>8377</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575512.2089522779</v>
+        <v>575336.5075504743</v>
       </c>
       <c r="R2" t="n">
-        <v>6509825.662577543</v>
+        <v>6509789.003789719</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111749883</v>
+        <v>111747186</v>
       </c>
       <c r="B3" t="n">
         <v>78107</v>
@@ -830,17 +830,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575336.5075504743</v>
+        <v>575435.6246570286</v>
       </c>
       <c r="R3" t="n">
-        <v>6509789.003789719</v>
+        <v>6509856.898648335</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111747705</v>
+        <v>111749897</v>
       </c>
       <c r="B4" t="n">
-        <v>93067</v>
+        <v>78107</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,42 +918,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2810</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575459.4222356658</v>
+        <v>575336.6687912485</v>
       </c>
       <c r="R4" t="n">
-        <v>6509864.113963567</v>
+        <v>6509780.695668718</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111749897</v>
+        <v>111749006</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>8377</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,42 +1031,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575336.6687912485</v>
+        <v>575512.2089522779</v>
       </c>
       <c r="R5" t="n">
-        <v>6509780.695668718</v>
+        <v>6509825.662577543</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111749860</v>
+        <v>111749097</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>93388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>2180</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575356.6078101217</v>
+        <v>575501.7342092508</v>
       </c>
       <c r="R6" t="n">
-        <v>6509772.251964441</v>
+        <v>6509775.591426332</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111749097</v>
+        <v>111749343</v>
       </c>
       <c r="B7" t="n">
-        <v>93388</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575501.7342092508</v>
+        <v>575415.2450877089</v>
       </c>
       <c r="R7" t="n">
-        <v>6509775.591426332</v>
+        <v>6509807.674603676</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111747186</v>
+        <v>111749860</v>
       </c>
       <c r="B8" t="n">
         <v>78107</v>
@@ -1395,17 +1395,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575435.6246570286</v>
+        <v>575356.6078101217</v>
       </c>
       <c r="R8" t="n">
-        <v>6509856.898648335</v>
+        <v>6509772.251964441</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111749343</v>
+        <v>111747705</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>93067</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>2810</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575415.2450877089</v>
+        <v>575459.4222356658</v>
       </c>
       <c r="R9" t="n">
-        <v>6509807.674603676</v>
+        <v>6509864.113963567</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964621</v>
+        <v>111964494</v>
       </c>
       <c r="B11" t="n">
-        <v>93388</v>
+        <v>56414</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1730,42 +1730,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1660 m, Ög</t>
+          <t>Stenstorp SSO 1470 m, Ög</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575609.0158921016</v>
+        <v>575345.716659593</v>
       </c>
       <c r="R11" t="n">
-        <v>6509824.949736473</v>
+        <v>6509958.000975758</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1797,7 +1805,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1807,7 +1815,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1816,13 +1824,12 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1840,10 +1847,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964494</v>
+        <v>111964621</v>
       </c>
       <c r="B12" t="n">
-        <v>56414</v>
+        <v>93388</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,50 +1859,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>2180</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1470 m, Ög</t>
+          <t>Stenstorp SSO 1660 m, Ög</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575345.716659593</v>
+        <v>575609.0158921016</v>
       </c>
       <c r="R12" t="n">
-        <v>6509958.000975758</v>
+        <v>6509824.949736473</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1927,7 +1926,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1937,7 +1936,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,12 +1945,13 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111749883</v>
+        <v>111747705</v>
       </c>
       <c r="B2" t="n">
-        <v>78107</v>
+        <v>93067</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6453</v>
+        <v>2810</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575336.5075504743</v>
+        <v>575459</v>
       </c>
       <c r="R2" t="n">
-        <v>6509789.003789719</v>
+        <v>6509864</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -754,19 +754,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111747186</v>
+        <v>111749006</v>
       </c>
       <c r="B3" t="n">
-        <v>78107</v>
+        <v>8377</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +795,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +824,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575435.6246570286</v>
+        <v>575512</v>
       </c>
       <c r="R3" t="n">
-        <v>6509856.898648335</v>
+        <v>6509826</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
@@ -867,19 +857,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +886,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111749897</v>
+        <v>111749860</v>
       </c>
       <c r="B4" t="n">
         <v>78107</v>
@@ -947,10 +927,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575336.6687912485</v>
+        <v>575357</v>
       </c>
       <c r="R4" t="n">
-        <v>6509780.695668718</v>
+        <v>6509772</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -980,19 +960,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +989,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111749006</v>
+        <v>111749343</v>
       </c>
       <c r="B5" t="n">
-        <v>8377</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1001,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,13 +1030,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575512.2089522779</v>
+        <v>575415</v>
       </c>
       <c r="R5" t="n">
-        <v>6509825.662577543</v>
+        <v>6509808</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1093,19 +1063,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1092,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111749097</v>
+        <v>111749883</v>
       </c>
       <c r="B6" t="n">
-        <v>93388</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,42 +1104,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575501.7342092508</v>
+        <v>575337</v>
       </c>
       <c r="R6" t="n">
-        <v>6509775.591426332</v>
+        <v>6509789</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1206,19 +1166,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,7 +1195,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111749343</v>
+        <v>111749897</v>
       </c>
       <c r="B7" t="n">
         <v>78107</v>
@@ -1282,14 +1232,14 @@
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575415.2450877089</v>
+        <v>575337</v>
       </c>
       <c r="R7" t="n">
-        <v>6509807.674603676</v>
+        <v>6509781</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1319,19 +1269,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,7 +1298,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111749860</v>
+        <v>111747186</v>
       </c>
       <c r="B8" t="n">
         <v>78107</v>
@@ -1395,17 +1335,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575356.6078101217</v>
+        <v>575436</v>
       </c>
       <c r="R8" t="n">
-        <v>6509772.251964441</v>
+        <v>6509857</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1432,19 +1372,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1401,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111747705</v>
+        <v>111749097</v>
       </c>
       <c r="B9" t="n">
-        <v>93067</v>
+        <v>93388</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1417,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2810</v>
+        <v>2180</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,13 +1442,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575459.4222356658</v>
+        <v>575502</v>
       </c>
       <c r="R9" t="n">
-        <v>6509864.113963567</v>
+        <v>6509776</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1545,19 +1475,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1504,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964550</v>
+        <v>111964494</v>
       </c>
       <c r="B10" t="n">
-        <v>103288</v>
+        <v>56414</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,43 +1516,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1640,10 +1556,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575345.716659593</v>
+        <v>575346</v>
       </c>
       <c r="R10" t="n">
-        <v>6509958.000975758</v>
+        <v>6509958</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1675,7 +1591,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1685,7 +1601,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1694,7 +1610,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1718,10 +1633,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964494</v>
+        <v>111964550</v>
       </c>
       <c r="B11" t="n">
-        <v>56414</v>
+        <v>103288</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1730,39 +1645,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>221144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1770,10 +1689,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575345.716659593</v>
+        <v>575346</v>
       </c>
       <c r="R11" t="n">
-        <v>6509958.000975758</v>
+        <v>6509958</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1803,27 +1722,18 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1891,10 +1801,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575609.0158921016</v>
+        <v>575609</v>
       </c>
       <c r="R12" t="n">
-        <v>6509824.949736473</v>
+        <v>6509825</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1924,19 +1834,9 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-07</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111747705</v>
+        <v>111747186</v>
       </c>
       <c r="B2" t="n">
-        <v>93067</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2810</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Västlig hakmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus loreus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hedw.) Warnst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575459</v>
+        <v>575436</v>
       </c>
       <c r="R2" t="n">
-        <v>6509864</v>
+        <v>6509857</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111749006</v>
+        <v>111747705</v>
       </c>
       <c r="B3" t="n">
-        <v>8377</v>
+        <v>93067</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -799,21 +799,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106545</v>
+        <v>2810</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Västlig hakmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Rhytidiadelphus loreus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Hedw.) Warnst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575512</v>
+        <v>575459</v>
       </c>
       <c r="R3" t="n">
-        <v>6509826</v>
+        <v>6509864</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111749343</v>
+        <v>111749897</v>
       </c>
       <c r="B5" t="n">
         <v>78107</v>
@@ -1026,14 +1026,14 @@
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Lilla gruvan (Lilla gruvan), Ög</t>
+          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575415</v>
+        <v>575337</v>
       </c>
       <c r="R5" t="n">
-        <v>6509808</v>
+        <v>6509781</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111749897</v>
+        <v>111749097</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>93388</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1207,42 +1207,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>2180</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Älgsjöhåll (Älgsjöhåll), Ög</t>
+          <t>Lilla gruvan (Lilla gruvan), Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575337</v>
+        <v>575502</v>
       </c>
       <c r="R7" t="n">
-        <v>6509781</v>
+        <v>6509776</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111747186</v>
+        <v>111749006</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>8377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1310,25 +1310,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575436</v>
+        <v>575512</v>
       </c>
       <c r="R8" t="n">
-        <v>6509857</v>
+        <v>6509826</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111749097</v>
+        <v>111749343</v>
       </c>
       <c r="B9" t="n">
-        <v>93388</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1413,25 +1413,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2180</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575502</v>
+        <v>575415</v>
       </c>
       <c r="R9" t="n">
-        <v>6509776</v>
+        <v>6509808</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964494</v>
+        <v>111964621</v>
       </c>
       <c r="B10" t="n">
-        <v>56414</v>
+        <v>93539</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1516,50 +1516,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>2180</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1470 m, Ög</t>
+          <t>Stenstorp SSO 1660 m, Ög</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575346</v>
+        <v>575609</v>
       </c>
       <c r="R10" t="n">
-        <v>6509958</v>
+        <v>6509825</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1589,33 +1581,24 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1633,10 +1616,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964550</v>
+        <v>111964494</v>
       </c>
       <c r="B11" t="n">
-        <v>103288</v>
+        <v>56446</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1645,43 +1628,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>överblommad</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1722,18 +1701,27 @@
           <t>2023-09-07</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1757,10 +1745,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111964621</v>
+        <v>111964550</v>
       </c>
       <c r="B12" t="n">
-        <v>93388</v>
+        <v>103755</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1773,38 +1761,50 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2180</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1660 m, Ög</t>
+          <t>Stenstorp SSO 1470 m, Ög</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575609</v>
+        <v>575346</v>
       </c>
       <c r="R12" t="n">
-        <v>6509825</v>
+        <v>6509958</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -1504,10 +1504,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964621</v>
+        <v>111964494</v>
       </c>
       <c r="B10" t="n">
-        <v>93539</v>
+        <v>56446</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1516,42 +1516,50 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1660 m, Ög</t>
+          <t>Stenstorp SSO 1470 m, Ög</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575609</v>
+        <v>575346</v>
       </c>
       <c r="R10" t="n">
-        <v>6509825</v>
+        <v>6509958</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1581,24 +1589,33 @@
           <t>2023-09-07</t>
         </is>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1616,10 +1633,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964494</v>
+        <v>111964621</v>
       </c>
       <c r="B11" t="n">
-        <v>56446</v>
+        <v>93553</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1628,50 +1645,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>2180</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1470 m, Ög</t>
+          <t>Stenstorp SSO 1660 m, Ög</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575346</v>
+        <v>575609</v>
       </c>
       <c r="R11" t="n">
-        <v>6509958</v>
+        <v>6509825</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1701,33 +1710,24 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1748,7 +1748,7 @@
         <v>111964550</v>
       </c>
       <c r="B12" t="n">
-        <v>103755</v>
+        <v>103781</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>

--- a/artfynd/A 34644-2023.xlsx
+++ b/artfynd/A 34644-2023.xlsx
@@ -1504,10 +1504,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111964494</v>
+        <v>111964621</v>
       </c>
       <c r="B10" t="n">
-        <v>56446</v>
+        <v>93553</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1516,50 +1516,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>2180</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1470 m, Ög</t>
+          <t>Stenstorp SSO 1660 m, Ög</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575346</v>
+        <v>575609</v>
       </c>
       <c r="R10" t="n">
-        <v>6509958</v>
+        <v>6509825</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1589,33 +1581,24 @@
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Äldre barrskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1633,10 +1616,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111964621</v>
+        <v>111964494</v>
       </c>
       <c r="B11" t="n">
-        <v>93553</v>
+        <v>56446</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1645,42 +1628,50 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2180</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Stenstorp SSO 1660 m, Ög</t>
+          <t>Stenstorp SSO 1470 m, Ög</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575609</v>
+        <v>575346</v>
       </c>
       <c r="R11" t="n">
-        <v>6509825</v>
+        <v>6509958</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1710,24 +1701,33 @@
           <t>2023-09-07</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Äldre barrskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
